--- a/BackTest/2020-01-22 BackTest BSV.xlsx
+++ b/BackTest/2020-01-22 BackTest BSV.xlsx
@@ -5731,7 +5731,7 @@
         <v>-780.6966583900014</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-487.1221583900014</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-754.0859586700014</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-625.3509586700014</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-625.3509586700014</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-618.4642586700014</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-665.6175586100014</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-665.6175586100014</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-686.9651577000014</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-676.7148577000014</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-642.8676451700014</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-646.0777040200014</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-729.4493040200014</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-729.4493040200014</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-468.9475759300014</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-429.5296759300014</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-262.9644759300014</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-344.8599335800014</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-348.9539335800014</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-345.0743324000014</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-330.8615324000014</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-256.9082064500014</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-257.2787064500014</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-320.8577064500014</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-228.0976205000014</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-260.7595196500014</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-251.0997196500014</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-367.8698196500014</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-502.2276196500014</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-502.7772196500014</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-586.9793196500013</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-586.9793196500013</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-606.5692196500013</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-656.0609196500013</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-704.6087621900014</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-679.0581621900013</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-762.9594973800014</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-784.6002667400014</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-759.4025112800011</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-723.1526100000011</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-627.6213109400011</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-627.6213109400011</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-585.7762103400011</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-604.986409200001</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-645.239609200001</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-788.6162092000011</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-788.6162092000011</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-808.3041092000011</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-808.3041092000011</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-735.5012092000011</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-585.930195490001</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-587.054595490001</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-720.669695490001</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-649.8042283800009</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-674.633761490001</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-667.610227210001</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-683.420827210001</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-656.422941780001</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-656.422941780001</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-419.059627210001</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-457.506570440001</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-457.506570440001</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-473.003870440001</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-571.0124704400009</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-519.7470704400009</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-519.7470704400009</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-454.0413704400009</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-215.2006704400009</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-102.4346692100009</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-279.1169692100009</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-175.894472830001</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-329.8656753000009</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-177.4001781200009</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-253.5220781200009</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-189.4847781200009</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-199.4847781200009</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-270.6882781200009</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-240.5573401500009</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-240.5573401500009</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-309.3136401500009</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-551.037540150001</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-531.0313401500009</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-507.0322401500009</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-481.0968401500009</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-384.7744401500009</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-424.6940401500009</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-402.5115401500009</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-402.5115401500009</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-426.3734401500009</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-403.6846829000009</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-262.5972829000009</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-374.8087829000009</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-0.04674848000087195</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>36.42145151999913</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>177.1731515199991</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>361.2202490799991</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-500.0255767600007</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16027,17 +16027,11 @@
         <v>-4488.194560090001</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>338000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16070,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16103,17 +16093,11 @@
         <v>-4720.18651001</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>337800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16142,17 +16126,11 @@
         <v>-4468.179910010001</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>334100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16181,17 +16159,11 @@
         <v>-4235.72021001</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>334700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16220,17 +16192,11 @@
         <v>-4095.98151001</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>336200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16259,17 +16225,11 @@
         <v>-4152.921410010001</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>338500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16298,17 +16258,11 @@
         <v>-4022.917668250001</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>338400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16337,17 +16291,11 @@
         <v>-4096.53416825</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>339300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16380,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16413,17 +16357,11 @@
         <v>-3888.47961001</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>337800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16452,17 +16390,11 @@
         <v>-4054.76550942</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>339600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16491,17 +16423,11 @@
         <v>-4054.76550942</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>338900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16534,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16571,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16608,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16645,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16682,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16719,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16756,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16793,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16830,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16867,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16904,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16941,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17015,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17052,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17089,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17126,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17163,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17200,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17237,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17274,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17311,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17348,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17385,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17418,13 +17248,15 @@
         <v>-3797.25970067</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>338500</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L511" t="n">
@@ -17455,9 +17287,11 @@
         <v>-3648.66140067</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>340000</v>
+      </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17492,9 +17326,11 @@
         <v>-3592.29097527</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>340500</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17529,9 +17365,11 @@
         <v>-3643.57797527</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>342100</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17566,9 +17404,11 @@
         <v>-3596.17877527</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>341400</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17603,9 +17443,11 @@
         <v>-3678.8800755</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>343300</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17640,9 +17482,11 @@
         <v>-3747.3007755</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>342500</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17677,9 +17521,11 @@
         <v>-3747.3007755</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>341900</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17714,9 +17560,11 @@
         <v>-3654.9835755</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>341900</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17751,9 +17599,11 @@
         <v>-3654.9835755</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>343000</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17788,9 +17638,11 @@
         <v>-3432.982475060001</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>343000</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17825,9 +17677,11 @@
         <v>-3332.43078665</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>344000</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -17862,9 +17716,11 @@
         <v>-3275.34688665</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>345100</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -17899,9 +17755,11 @@
         <v>-3355.01884459</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>345400</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -17936,9 +17794,11 @@
         <v>-3311.86697702</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>344400</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -17973,9 +17833,11 @@
         <v>-3360.76917702</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>345400</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18010,9 +17872,11 @@
         <v>-3350.255024860001</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>344200</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18047,9 +17911,11 @@
         <v>-3244.98132486</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>344300</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18084,9 +17950,11 @@
         <v>-3326.333724860001</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>344700</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18121,9 +17989,11 @@
         <v>-3409.351024860001</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>343200</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18158,9 +18028,11 @@
         <v>-3499.519849400001</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>342500</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18195,9 +18067,11 @@
         <v>-3499.519849400001</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>341700</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18232,9 +18106,11 @@
         <v>-3485.4449494</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>341700</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18269,9 +18145,11 @@
         <v>-3485.4449494</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>342800</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18306,9 +18184,11 @@
         <v>-3409.0172494</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>342800</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18343,9 +18223,11 @@
         <v>-3414.31135155</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>343100</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18380,9 +18262,11 @@
         <v>-3386.81945155</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>342000</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18417,9 +18301,11 @@
         <v>-3331.98825155</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>342800</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18454,9 +18340,11 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>343100</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18491,9 +18379,11 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>344000</v>
+      </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -18528,9 +18418,11 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>344000</v>
+      </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -18565,9 +18457,11 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>344000</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18602,9 +18496,11 @@
         <v>-3205.820453880001</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>344000</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -18639,9 +18535,11 @@
         <v>-2982.474073960001</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>345000</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -18676,9 +18574,11 @@
         <v>-3020.191673960001</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>346600</v>
+      </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -18713,9 +18613,11 @@
         <v>-2999.43617396</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>344700</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -18750,9 +18652,11 @@
         <v>-2920.51884698</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>344800</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -18787,9 +18691,11 @@
         <v>-2904.15004698</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>345800</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -18824,9 +18730,11 @@
         <v>-2926.31264698</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>346000</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -18861,9 +18769,11 @@
         <v>-2878.651946980001</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>345700</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -18898,9 +18808,11 @@
         <v>-2702.33734698</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>345800</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18935,16 +18847,20 @@
         <v>-2702.33734698</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>347000</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L552" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
       <c r="M552" t="inlineStr"/>
     </row>
     <row r="553">
@@ -18970,11 +18886,17 @@
         <v>-2595.75754698</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>347000</v>
+      </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19003,11 +18925,17 @@
         <v>-2339.66342765</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>347900</v>
+      </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19036,11 +18964,17 @@
         <v>-2184.39879423</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>348500</v>
+      </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19069,11 +19003,15 @@
         <v>-2344.27063886</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19102,11 +19040,15 @@
         <v>-2322.70243752</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19135,11 +19077,15 @@
         <v>-2390.75150994</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19168,11 +19114,15 @@
         <v>-2390.75150994</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19201,11 +19151,15 @@
         <v>-2408.83280994</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19234,11 +19188,15 @@
         <v>-2443.72030994</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19267,11 +19225,15 @@
         <v>-2394.68590994</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19304,7 +19266,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19337,7 +19303,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19370,7 +19340,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19403,7 +19377,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19436,7 +19414,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19469,7 +19451,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19502,7 +19488,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19535,7 +19525,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19568,7 +19562,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19601,7 +19599,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19634,7 +19636,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19667,7 +19673,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19700,7 +19710,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19733,7 +19747,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19766,7 +19784,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19799,7 +19821,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19832,7 +19858,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19861,11 +19891,15 @@
         <v>-2574.37473258</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19898,7 +19932,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19927,11 +19965,15 @@
         <v>-2580.67233258</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19960,11 +20002,15 @@
         <v>-2600.21413258</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19993,11 +20039,15 @@
         <v>-2592.21513258</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20026,11 +20076,15 @@
         <v>-2495.16253258</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20063,7 +20117,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20096,7 +20154,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20125,11 +20187,15 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20158,11 +20224,15 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20191,11 +20261,15 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20224,11 +20298,15 @@
         <v>-2181.98603526</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20257,11 +20335,15 @@
         <v>-2239.59503526</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20290,11 +20372,15 @@
         <v>-2026.55093526</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20323,11 +20409,15 @@
         <v>-1957.54633526</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20356,11 +20446,15 @@
         <v>-2057.47143526</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20389,11 +20483,15 @@
         <v>-1603.17230609</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20422,11 +20520,15 @@
         <v>-1779.01430609</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20455,11 +20557,15 @@
         <v>-1830.52550609</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20488,11 +20594,15 @@
         <v>-1915.35370609</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20521,11 +20631,15 @@
         <v>-2036.98211006</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20554,11 +20668,15 @@
         <v>-1988.00669558</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20591,7 +20709,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20624,7 +20746,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20657,7 +20783,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20690,7 +20820,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20723,7 +20857,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20756,7 +20894,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20789,7 +20931,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20822,7 +20968,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20855,7 +21005,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20888,7 +21042,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20921,7 +21079,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20954,7 +21116,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20987,7 +21153,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21020,7 +21190,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21053,7 +21227,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21086,7 +21264,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21119,7 +21301,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21152,7 +21338,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21185,7 +21375,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21218,7 +21412,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21251,7 +21449,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21284,7 +21486,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21317,7 +21523,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21350,7 +21560,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21383,7 +21597,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21416,7 +21634,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21449,7 +21671,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21482,7 +21708,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21515,7 +21745,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21548,7 +21782,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21581,7 +21819,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21614,7 +21856,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21647,7 +21893,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21680,7 +21930,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21713,7 +21967,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21746,7 +22004,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21779,7 +22041,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21812,7 +22078,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21845,7 +22115,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21878,7 +22152,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21911,7 +22189,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21944,7 +22226,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21977,7 +22263,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22010,7 +22300,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22043,7 +22337,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22076,7 +22374,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22109,7 +22411,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22142,7 +22448,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22175,7 +22485,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22208,7 +22522,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22241,7 +22559,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22274,7 +22596,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22307,7 +22633,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22340,7 +22670,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22373,7 +22707,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22406,7 +22744,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22439,7 +22781,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22472,7 +22818,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22505,7 +22855,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22538,7 +22892,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22571,7 +22929,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22604,7 +22966,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22637,7 +23003,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22670,7 +23040,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22703,7 +23077,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22736,7 +23114,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22769,7 +23151,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22802,7 +23188,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22835,7 +23225,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22868,7 +23262,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22901,7 +23299,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22934,7 +23336,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22967,7 +23373,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23000,7 +23410,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23033,7 +23447,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23066,7 +23484,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23099,7 +23521,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23132,7 +23558,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23165,7 +23595,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23198,7 +23632,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23231,7 +23669,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23264,7 +23706,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23297,7 +23743,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23330,7 +23780,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23363,7 +23817,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23396,7 +23854,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23425,11 +23887,17 @@
         <v>-3564.700165419999</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>343000</v>
+      </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23462,7 +23930,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23495,7 +23967,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23524,11 +24000,17 @@
         <v>-3564.700165419999</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>343500</v>
+      </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23557,11 +24039,17 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>343500</v>
+      </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23590,11 +24078,17 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>343700</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23623,11 +24117,17 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>343700</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23656,11 +24156,17 @@
         <v>-3521.596665419999</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>343700</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23689,11 +24195,17 @@
         <v>-3515.596665419999</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>344300</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23722,11 +24234,17 @@
         <v>-3515.596665419999</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>344400</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23755,11 +24273,17 @@
         <v>-3514.675865419999</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>344400</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23788,11 +24312,17 @@
         <v>-3525.833365419999</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>344600</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23821,11 +24351,17 @@
         <v>-3459.540195079999</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>344500</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23854,11 +24390,17 @@
         <v>-3451.555195079999</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>344600</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23887,11 +24429,17 @@
         <v>-3458.802695079999</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>344900</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23920,11 +24468,17 @@
         <v>-3437.615795079999</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>344100</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23953,11 +24507,17 @@
         <v>-3464.892895079999</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>344900</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23986,11 +24546,17 @@
         <v>-3464.892895079999</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>344800</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24019,11 +24585,17 @@
         <v>-3491.514395079999</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>344800</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24052,11 +24624,17 @@
         <v>-3491.514395079999</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>343500</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24085,11 +24663,17 @@
         <v>-3522.190095079999</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>343500</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24118,11 +24702,17 @@
         <v>-3521.557695079999</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>343400</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24151,11 +24741,17 @@
         <v>-3521.557695079999</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>344800</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24184,11 +24780,17 @@
         <v>-3528.557695079999</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>344800</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24217,11 +24819,17 @@
         <v>-3508.977795079998</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>343300</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24250,11 +24858,17 @@
         <v>-3508.877795079999</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>344600</v>
+      </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24283,11 +24897,17 @@
         <v>-3520.507895079998</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>344700</v>
+      </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24316,11 +24936,17 @@
         <v>-3488.461195079999</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>344000</v>
+      </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24349,11 +24975,17 @@
         <v>-3356.447495079999</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>344800</v>
+      </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24382,11 +25014,17 @@
         <v>-3368.197095079999</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>344900</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24415,11 +25053,17 @@
         <v>-3368.197095079999</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>344800</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24448,11 +25092,17 @@
         <v>-3340.421365419999</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>344800</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24481,11 +25131,17 @@
         <v>-3318.789365419999</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>345600</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24514,11 +25170,17 @@
         <v>-3339.750865419999</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>346000</v>
+      </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24547,11 +25209,17 @@
         <v>-3308.865765419999</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>344700</v>
+      </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24580,11 +25248,17 @@
         <v>-3314.569065419999</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>345000</v>
+      </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24613,11 +25287,17 @@
         <v>-3314.566765419999</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>344200</v>
+      </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24646,11 +25326,17 @@
         <v>-3223.443365419999</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>344800</v>
+      </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24679,11 +25365,17 @@
         <v>-3214.910365419999</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>345100</v>
+      </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24712,11 +25404,17 @@
         <v>-3106.193365419999</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>345700</v>
+      </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24745,11 +25443,17 @@
         <v>-2980.280065419999</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>345800</v>
+      </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24778,11 +25482,17 @@
         <v>-2963.957865419999</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>346500</v>
+      </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24811,11 +25521,17 @@
         <v>-2973.957865419999</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>346900</v>
+      </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24844,11 +25560,17 @@
         <v>-2956.772565419999</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>344900</v>
+      </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24877,11 +25599,17 @@
         <v>-2867.962765419999</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>346800</v>
+      </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24910,11 +25638,17 @@
         <v>-2685.622965419998</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>347300</v>
+      </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24947,7 +25681,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24980,7 +25718,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25013,7 +25755,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25046,7 +25792,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25079,7 +25829,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25112,7 +25866,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25145,7 +25903,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25178,7 +25940,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25211,7 +25977,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25244,7 +26014,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25277,7 +26051,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25310,7 +26088,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25343,7 +26125,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25376,7 +26162,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25409,7 +26199,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25442,7 +26236,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25475,7 +26273,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25508,7 +26310,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25541,7 +26347,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25574,7 +26384,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25607,7 +26421,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25640,7 +26458,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25673,7 +26495,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25706,7 +26532,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25739,7 +26569,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25772,7 +26606,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25805,7 +26643,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25838,7 +26680,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25871,7 +26717,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25904,7 +26754,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25937,7 +26791,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25970,7 +26828,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26003,7 +26865,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26036,7 +26902,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26069,7 +26939,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26102,7 +26976,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26135,7 +27013,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26168,7 +27050,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26201,7 +27087,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26234,7 +27124,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26267,7 +27161,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26300,7 +27198,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26333,7 +27235,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26366,7 +27272,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26399,7 +27309,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26432,7 +27346,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26465,7 +27383,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26498,7 +27420,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26531,7 +27457,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26564,7 +27494,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26597,7 +27531,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26630,7 +27568,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26663,7 +27605,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26696,7 +27642,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26729,7 +27679,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26762,7 +27716,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26795,7 +27753,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26828,7 +27790,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26861,7 +27827,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26894,7 +27864,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26927,7 +27901,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26960,7 +27938,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26993,7 +27975,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27026,7 +28012,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27059,7 +28049,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27092,7 +28086,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27125,7 +28123,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27158,7 +28160,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27191,7 +28197,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27224,7 +28234,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27257,7 +28271,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27290,7 +28308,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27323,7 +28345,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27356,7 +28382,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27389,7 +28419,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27422,7 +28456,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27455,7 +28493,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27488,7 +28530,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27521,7 +28567,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27554,7 +28604,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27587,7 +28641,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27620,7 +28678,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27653,7 +28715,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27686,7 +28752,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27719,7 +28789,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27752,7 +28826,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27785,7 +28863,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27818,7 +28900,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27851,7 +28937,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27884,7 +28974,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27917,7 +29011,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27950,7 +29048,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27983,7 +29085,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28016,7 +29122,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28045,11 +29155,17 @@
         <v>-3138.137939969999</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>341600</v>
+      </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28082,7 +29198,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28115,7 +29235,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28144,11 +29268,17 @@
         <v>-3605.458239969999</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>341000</v>
+      </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28181,7 +29311,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28218,7 +29352,7 @@
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L833" t="n">
@@ -28444,9 +29578,11 @@
         <v>-3482.991539969998</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>340700</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28481,9 +29617,11 @@
         <v>-3499.489839969999</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>342700</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28518,9 +29656,11 @@
         <v>-3478.183339969999</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>341800</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28555,9 +29695,11 @@
         <v>-3411.420039969998</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>341900</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28592,9 +29734,11 @@
         <v>-3486.720239969999</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>343900</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28629,9 +29773,11 @@
         <v>-3486.720239969999</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>343000</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28666,9 +29812,11 @@
         <v>-3527.817139969999</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>343000</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28703,9 +29851,11 @@
         <v>-3527.817139969999</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>342300</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28740,9 +29890,11 @@
         <v>-3450.949339969999</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>342300</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28777,9 +29929,11 @@
         <v>-3429.416139969999</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>342700</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28814,9 +29968,11 @@
         <v>-3416.551039969999</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>342800</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28851,9 +30007,11 @@
         <v>-3416.551039969999</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>343300</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -28888,9 +30046,11 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>343300</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28925,9 +30085,11 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>343200</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28962,9 +30124,11 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>343200</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -28999,9 +30163,11 @@
         <v>-3425.240139969999</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>343200</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -29036,9 +30202,11 @@
         <v>-3412.097952849999</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>342500</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -29073,9 +30241,11 @@
         <v>-3271.490539969999</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>343300</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -29110,9 +30280,11 @@
         <v>-3358.134547209999</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>344900</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -29147,9 +30319,11 @@
         <v>-3225.631347209999</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>344500</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29184,9 +30358,11 @@
         <v>-3376.636847209999</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>345100</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29221,9 +30397,11 @@
         <v>-3232.246073489999</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>345000</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29295,9 +30473,11 @@
         <v>-3295.333772849999</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>344400</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29332,9 +30512,11 @@
         <v>-3305.371871529999</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>344400</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29369,9 +30551,11 @@
         <v>-3253.350870209999</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>343500</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29406,9 +30590,11 @@
         <v>-3202.093270209999</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>344400</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29665,9 +30851,11 @@
         <v>-2915.34853843</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>346500</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29702,9 +30890,11 @@
         <v>-2879.37303843</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>345700</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29887,9 +31077,11 @@
         <v>-2753.24422705</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>346100</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29924,9 +31116,11 @@
         <v>-2779.90212705</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>345700</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29961,9 +31155,11 @@
         <v>-2808.18202705</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>345300</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29998,9 +31194,11 @@
         <v>-2768.01202705</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>345000</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -30035,9 +31233,11 @@
         <v>-2773.04572705</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>345100</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30072,9 +31272,11 @@
         <v>-2840.87582705</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>344300</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30109,9 +31311,11 @@
         <v>-2816.40282705</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>344200</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30146,9 +31350,11 @@
         <v>-2821.80112705</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>345900</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30183,9 +31389,11 @@
         <v>-2699.93732705</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>345600</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30220,9 +31428,11 @@
         <v>-2677.96272705</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>347000</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -30257,9 +31467,11 @@
         <v>-2684.44262705</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>347200</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -30294,9 +31506,11 @@
         <v>-2685.44262705</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>346900</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -30331,9 +31545,11 @@
         <v>-2759.96262705</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>346800</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -30368,9 +31584,11 @@
         <v>-2759.96262705</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>346200</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -32403,11 +33621,9 @@
         <v>-3064.699803699999</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>343200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32442,11 +33658,9 @@
         <v>-3064.1385037</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>342300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -33739,16 +34953,18 @@
         <v>-1270.464683779999</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L982" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L982" t="n">
+        <v>1</v>
+      </c>
       <c r="M982" t="inlineStr"/>
     </row>
     <row r="983">
@@ -33774,11 +34990,15 @@
         <v>-1136.414826869999</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33807,11 +35027,15 @@
         <v>-1173.193700929999</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33840,11 +35064,15 @@
         <v>-1064.786607209999</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33873,11 +35101,15 @@
         <v>-916.9443782899993</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33906,11 +35138,15 @@
         <v>-959.5203788499994</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33939,11 +35175,15 @@
         <v>-930.8373116399994</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33972,11 +35212,15 @@
         <v>-1050.817311639999</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34005,11 +35249,15 @@
         <v>-1050.817311639999</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34038,11 +35286,15 @@
         <v>-1079.789801959999</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34071,11 +35323,15 @@
         <v>-1148.225491399999</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34104,11 +35360,15 @@
         <v>-1113.310691399999</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34137,11 +35397,15 @@
         <v>-1158.703991399999</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34170,11 +35434,15 @@
         <v>-1109.089891399999</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34203,11 +35471,15 @@
         <v>-1028.681128549999</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34236,11 +35508,15 @@
         <v>-960.8748684999994</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34269,11 +35545,15 @@
         <v>-651.7647175999994</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34302,11 +35582,15 @@
         <v>-199.3320503099994</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34335,11 +35619,15 @@
         <v>-395.8082016299994</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34368,11 +35656,15 @@
         <v>-145.2827016299994</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34401,11 +35693,15 @@
         <v>234.4988483800006</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34434,11 +35730,15 @@
         <v>971.6666158100006</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34467,11 +35767,15 @@
         <v>454.2888785300006</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34500,11 +35804,15 @@
         <v>694.8257408800006</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34533,11 +35841,15 @@
         <v>875.5569802700006</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34566,11 +35878,15 @@
         <v>1204.201649930001</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34599,11 +35915,15 @@
         <v>1471.466711180001</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34632,11 +35952,15 @@
         <v>1355.502345360001</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34665,11 +35989,15 @@
         <v>1288.504945360001</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34702,7 +36030,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34735,7 +36067,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34768,7 +36104,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34801,7 +36141,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34834,7 +36178,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34867,7 +36215,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34900,7 +36252,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34933,7 +36289,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34966,7 +36326,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34999,7 +36363,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35032,7 +36400,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35065,7 +36437,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35098,7 +36474,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35131,7 +36511,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35164,7 +36548,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35197,7 +36585,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35230,7 +36622,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35259,11 +36655,15 @@
         <v>1315.06706894</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35292,11 +36692,15 @@
         <v>1396.31006894</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35325,11 +36729,15 @@
         <v>1208.65726894</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35358,11 +36766,15 @@
         <v>1465.88616888</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35391,11 +36803,15 @@
         <v>1511.87186888</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35424,11 +36840,15 @@
         <v>1511.87186888</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35457,11 +36877,15 @@
         <v>1591.71596888</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35494,7 +36918,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35527,7 +36955,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35560,7 +36992,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35593,7 +37029,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35626,7 +37066,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35659,7 +37103,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35692,7 +37140,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35725,7 +37177,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35754,11 +37210,15 @@
         <v>1144.33020741</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35787,11 +37247,15 @@
         <v>777.8421074099997</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35820,11 +37284,15 @@
         <v>801.5399074099997</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35853,11 +37321,15 @@
         <v>1003.79010741</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35886,11 +37358,15 @@
         <v>1097.87985297</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35923,7 +37399,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35956,7 +37436,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35989,7 +37473,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36022,7 +37510,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36055,7 +37547,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36088,7 +37584,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36121,7 +37621,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36154,7 +37658,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36187,7 +37695,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36220,7 +37732,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36253,7 +37769,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36286,7 +37806,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36319,7 +37843,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36352,7 +37880,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36385,7 +37917,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36418,7 +37954,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36451,7 +37991,11 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36484,7 +38028,11 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36517,7 +38065,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36550,7 +38102,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36583,7 +38139,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36616,7 +38176,11 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36649,7 +38213,11 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36682,7 +38250,11 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36715,7 +38287,11 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36748,7 +38324,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36781,7 +38361,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36814,7 +38398,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36847,7 +38435,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36880,7 +38472,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36913,7 +38509,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36946,7 +38546,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36979,7 +38583,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37012,7 +38620,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37045,7 +38657,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37078,7 +38694,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37111,7 +38731,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37144,7 +38768,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37177,7 +38805,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37210,7 +38842,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37243,7 +38879,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37276,7 +38916,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37309,7 +38953,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37342,7 +38990,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37375,7 +39027,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37408,7 +39064,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37441,7 +39101,11 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37474,7 +39138,11 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37507,7 +39175,11 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37540,7 +39212,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37573,7 +39249,11 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37606,7 +39286,11 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37639,7 +39323,11 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37672,7 +39360,11 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37705,7 +39397,11 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37738,7 +39434,11 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37771,7 +39471,11 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37804,7 +39508,11 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37837,7 +39545,11 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37866,14 +39578,16 @@
         <v>3714.221240509999</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
-      <c r="L1107" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1107" t="inlineStr"/>
       <c r="M1107" t="inlineStr"/>
     </row>
     <row r="1108">
@@ -37899,7 +39613,7 @@
         <v>3955.351376699999</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -37965,7 +39679,7 @@
         <v>3629.115094739999</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -37998,7 +39712,7 @@
         <v>3534.628274609999</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38526,7 +40240,7 @@
         <v>4117.62111691</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -38559,7 +40273,7 @@
         <v>4516.04501691</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -38592,7 +40306,7 @@
         <v>6198.17572329</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -38625,7 +40339,7 @@
         <v>5493.607908</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -38658,7 +40372,7 @@
         <v>5302.3085026</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -38691,7 +40405,7 @@
         <v>5570.4277026</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -38724,7 +40438,7 @@
         <v>5714.3608026</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -38757,7 +40471,7 @@
         <v>5233.81520506</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -38790,7 +40504,7 @@
         <v>4893.40192214</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -38823,7 +40537,7 @@
         <v>5065.32121884</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -38856,7 +40570,7 @@
         <v>5033.01651141</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -38889,7 +40603,7 @@
         <v>5202.52540422</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -38922,7 +40636,7 @@
         <v>5039.95170422</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -38955,7 +40669,7 @@
         <v>4940.98555552</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38988,7 +40702,7 @@
         <v>4396.973673410001</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39021,7 +40735,7 @@
         <v>4671.57657341</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -39054,7 +40768,7 @@
         <v>4430.386073410001</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -39087,7 +40801,7 @@
         <v>4486.04957341</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39120,7 +40834,7 @@
         <v>4355.392873410001</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39153,7 +40867,7 @@
         <v>4303.217073410001</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -39186,7 +40900,7 @@
         <v>4337.516873410001</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -39219,7 +40933,7 @@
         <v>4191.572773410001</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -39252,7 +40966,7 @@
         <v>4063.852661390001</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -39285,7 +40999,7 @@
         <v>3956.398951360001</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -39318,7 +41032,7 @@
         <v>4110.959879430001</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -39351,7 +41065,7 @@
         <v>3994.340779430001</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -39384,7 +41098,7 @@
         <v>3813.496979430001</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -39417,7 +41131,7 @@
         <v>3813.496979430001</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -39450,7 +41164,7 @@
         <v>3886.550279430001</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -39483,7 +41197,7 @@
         <v>4048.748380790001</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -39516,7 +41230,7 @@
         <v>4002.795280790001</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -39549,7 +41263,7 @@
         <v>4202.261880790001</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -39582,7 +41296,7 @@
         <v>4027.628033460001</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -39615,7 +41329,7 @@
         <v>4027.628033460001</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -39648,7 +41362,7 @@
         <v>3567.203005870001</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -39681,7 +41395,7 @@
         <v>3409.187805870001</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -39780,7 +41494,7 @@
         <v>3564.342247850001</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -39813,7 +41527,7 @@
         <v>3553.174147850001</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -39879,7 +41593,7 @@
         <v>3535.828047850001</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40209,7 +41923,7 @@
         <v>4211.502826350001</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -40242,7 +41956,7 @@
         <v>3762.121196450001</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -40275,7 +41989,7 @@
         <v>3834.213796450001</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -40308,7 +42022,7 @@
         <v>4172.592096450001</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -40341,7 +42055,7 @@
         <v>4702.372112210001</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -40374,7 +42088,7 @@
         <v>4514.368418430002</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -40407,7 +42121,7 @@
         <v>4325.648983840002</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -40440,7 +42154,7 @@
         <v>4264.798183840002</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -40473,7 +42187,7 @@
         <v>4367.905183840002</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -40506,7 +42220,7 @@
         <v>3934.091076970002</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -40539,7 +42253,7 @@
         <v>4025.125176970002</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -40572,7 +42286,7 @@
         <v>3952.589596710001</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -40605,7 +42319,7 @@
         <v>3553.904991130001</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -40638,7 +42352,7 @@
         <v>3391.182492220001</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -40671,7 +42385,7 @@
         <v>3391.182492220001</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -40704,7 +42418,7 @@
         <v>3304.865841010001</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -40737,7 +42451,7 @@
         <v>2923.880741010001</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -40770,7 +42484,7 @@
         <v>2947.496841010001</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -40803,7 +42517,7 @@
         <v>2861.895241010001</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -40836,7 +42550,7 @@
         <v>2861.895241010001</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -40869,7 +42583,7 @@
         <v>3020.535819850002</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -40902,7 +42616,7 @@
         <v>2928.097720800002</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -40935,7 +42649,7 @@
         <v>2928.097720800002</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -40968,7 +42682,7 @@
         <v>2913.529112130002</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -41001,7 +42715,7 @@
         <v>2817.082712130002</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -41034,7 +42748,7 @@
         <v>2645.566412130002</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -41067,7 +42781,7 @@
         <v>2645.566412130002</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -41100,7 +42814,7 @@
         <v>2762.426112230002</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -41133,7 +42847,7 @@
         <v>2762.426112230002</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -41166,7 +42880,7 @@
         <v>2747.900112230002</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -41199,7 +42913,7 @@
         <v>2977.404391550002</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -41232,7 +42946,7 @@
         <v>2811.998791550002</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -41265,7 +42979,7 @@
         <v>2697.417991550002</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
